--- a/misc/resultados.xlsx
+++ b/misc/resultados.xlsx
@@ -11,7 +11,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhy1oo/NQIMK8PgZ+0oWh7VxS4I9g=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mimu24ntMRrc26Fs+F/mSYuWaqejQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -41,7 +41,7 @@
     <t>1) comentários</t>
   </si>
   <si>
-    <t>Em relação à média: o caso sem escadas e cobras resulta no que é esperado, que seria algo próximo (um pouco maior) que 100/3,5. Quando colocadas escadas e cobras, aumenta-se a média, afinal em muitos casos é necessário reiniciar o jogo todo. Ao deixar apenas escadas e poucas cobras, a média diminui bastante, pois o jogo fica mais fácil de ganhar. Em relação ao desvio-padrão: o menor desvpad é o jogo sem atalhos. Quando se colocam muitos atalhos, o desvpad dispara, afinal o número de iterações varia muito entre as jogadas. Ao diminuir a quantidade de atalhos (poucas cobras), esse desvpad diminui.</t>
+    <t>Em relação à média: o caso sem escadas e cobras resulta no que é esperado, que seria algo próximo (um pouco maior) que 100/3,5. Quando colocadas escadas e cobras, aumenta-se a média, afinal em muitos casos é necessário reiniciar o jogo todo. Ao deixar apenas escadas e poucas cobras, a média diminui bastante, pois o jogo fica mais fácil de ganhar. Em relação ao desvio-padrão: o menor desvpad é o jogo sem atalhos. Quando se colocam muitos atalhos, o desvpad dispara, afinal o número de jogadas necessárias varia muito entre as rodadas. Ao diminuir a quantidade de atalhos (poucas cobras), esse desvpad diminui.</t>
   </si>
   <si>
     <t>&gt;&lt;&gt;&lt;&gt;&lt;&gt;&lt;&gt;&lt;&gt;&lt;&gt;</t>
@@ -87,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -96,10 +96,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -141,20 +137,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,7 +426,7 @@
         <v>9.526</v>
       </c>
     </row>
-    <row r="7" ht="45.0" customHeight="1">
+    <row r="7">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -495,7 +488,7 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="2">
         <v>4.98</v>
       </c>
     </row>
@@ -503,7 +496,7 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="2">
         <v>5.2015</v>
       </c>
     </row>
@@ -511,7 +504,7 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="2">
         <v>5.37</v>
       </c>
     </row>
@@ -519,7 +512,7 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="2">
         <v>4.9457</v>
       </c>
     </row>
@@ -527,7 +520,7 @@
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="2">
         <v>3.995</v>
       </c>
     </row>
@@ -535,7 +528,7 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="2">
         <v>3.685</v>
       </c>
     </row>
